--- a/inputs/wi.xlsx
+++ b/inputs/wi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC4C6A8-F5EA-4629-A8CC-F510A882C97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63835735-7F7E-43AA-B064-E68925B8E3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="2130" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -422,10 +422,10 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>35.871000000000002</v>
+        <v>0.3606149659239804</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -440,7 +440,7 @@
         <v>0.8</v>
       </c>
       <c r="H2">
-        <v>10195233.4</v>
+        <v>9268394</v>
       </c>
     </row>
   </sheetData>
@@ -487,10 +487,10 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>35.871000000000002</v>
+        <v>0.3606149659239804</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -506,7 +506,7 @@
       </c>
       <c r="H2">
         <f>'2025'!H2*(1-0.1*0.2)</f>
-        <v>9991328.7320000008</v>
+        <v>9083026.1199999992</v>
       </c>
     </row>
   </sheetData>
@@ -553,10 +553,10 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>35.871000000000002</v>
+        <v>0.3606149659239804</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -572,7 +572,7 @@
       </c>
       <c r="H2">
         <f>'2025'!H2*(1-0.1*0.4)</f>
-        <v>9787424.0639999993</v>
+        <v>8897658.2400000002</v>
       </c>
     </row>
   </sheetData>
@@ -619,10 +619,10 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>35.871000000000002</v>
+        <v>0.3606149659239804</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -638,7 +638,7 @@
       </c>
       <c r="H2">
         <f>'2025'!H2*(1-0.1*0.6)</f>
-        <v>9583519.3959999997</v>
+        <v>8712290.3599999994</v>
       </c>
     </row>
   </sheetData>
@@ -685,10 +685,10 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>35.871000000000002</v>
+        <v>0.3606149659239804</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="H2">
         <f>'2025'!H2*(1-0.1*0.8)</f>
-        <v>9379614.7280000001</v>
+        <v>8526922.4799999986</v>
       </c>
     </row>
   </sheetData>
@@ -751,10 +751,10 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>35.871000000000002</v>
+        <v>0.3606149659239804</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>2.6</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="H2">
         <f>'2025'!H2*(1-0.1*1)</f>
-        <v>9175710.0600000005</v>
+        <v>8341554.6000000006</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/wi.xlsx
+++ b/inputs/wi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63835735-7F7E-43AA-B064-E68925B8E3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D043C5-ADE5-4903-8D08-08D848E4CB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>0.3606149659239804</v>
+        <v>0.15028535700000001</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -487,7 +487,7 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>0.3606149659239804</v>
+        <v>0.15028535700000001</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -553,7 +553,7 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>0.3606149659239804</v>
+        <v>0.15028535700000001</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -619,7 +619,7 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>0.3606149659239804</v>
+        <v>0.15028535700000001</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -685,7 +685,7 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>0.3606149659239804</v>
+        <v>0.15028535700000001</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -751,7 +751,7 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>0.3606149659239804</v>
+        <v>0.15028535700000001</v>
       </c>
       <c r="C2">
         <v>50</v>
